--- a/steamcase/homepage/homehotpositioncase.xlsx
+++ b/steamcase/homepage/homehotpositioncase.xlsx
@@ -54,10 +54,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"phoneNo":"18916899938"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>用户浏览首页推荐位</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -70,7 +66,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/featured/index/configs/pageQueryPositionShows</t>
+    <t>"phoneNo":"18916899938"
+"position":"03"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/featured/index/configs/pageQueryPositionShows-home</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -449,14 +450,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.625" customWidth="1"/>
-    <col min="2" max="2" width="22.375" customWidth="1"/>
+    <col min="2" max="2" width="60" customWidth="1"/>
     <col min="3" max="3" width="19.125" customWidth="1"/>
     <col min="4" max="4" width="35.875" customWidth="1"/>
     <col min="5" max="5" width="15.125" customWidth="1"/>
@@ -493,20 +494,20 @@
     </row>
     <row r="2" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
         <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
         <v>8</v>

--- a/steamcase/homepage/homehotpositioncase.xlsx
+++ b/steamcase/homepage/homehotpositioncase.xlsx
@@ -54,10 +54,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>用户浏览首页推荐位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>queryHomeCnf</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -72,6 +68,10 @@
   </si>
   <si>
     <t>/featured/index/configs/pageQueryPositionShows-home</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户浏览首页更多精彩</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -450,7 +450,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -494,20 +494,20 @@
     </row>
     <row r="2" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
         <v>13</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G2" t="s">
         <v>8</v>

--- a/steamcase/homepage/homehotpositioncase.xlsx
+++ b/steamcase/homepage/homehotpositioncase.xlsx
@@ -67,11 +67,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/featured/index/configs/pageQueryPositionShows-home</t>
+    <t>用户浏览首页更多精彩</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>用户浏览首页更多精彩</t>
+    <t>/featured/index/configs/pageQueryPositionShows-homehot</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -451,7 +451,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -497,10 +497,10 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
         <v>12</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" t="s">

--- a/steamcase/homepage/homehotpositioncase.xlsx
+++ b/steamcase/homepage/homehotpositioncase.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\litaojun\workspace\steamOmTest\steamcase\homepage\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{01888FDA-830F-4C64-B60F-7C18CFE8B44B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7485"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="usermanager" sheetId="1" r:id="rId1"/>
@@ -67,18 +68,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>用户浏览首页更多精彩</t>
+    <t>/featured/index/configs/pageQueryPositionShows-homehot</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/featured/index/configs/pageQueryPositionShows-homehot</t>
+    <t>用户浏览首页-热门推荐运营位配置内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -447,11 +448,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -497,10 +498,10 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
         <v>13</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" t="s">

--- a/steamcase/homepage/homehotpositioncase.xlsx
+++ b/steamcase/homepage/homehotpositioncase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\litaojun\workspace\steamOmTest\steamcase\homepage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{01888FDA-830F-4C64-B60F-7C18CFE8B44B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{CFFC7EE8-B7DF-45E2-A52F-4A7D97707832}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t>caseid</t>
   </si>
@@ -68,11 +68,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/featured/index/configs/pageQueryPositionShows-homehot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>用户浏览首页-热门推荐运营位配置内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>find_page_cal_1</t>
+  </si>
+  <si>
+    <t>用户浏览发现页-计算推荐内容</t>
+  </si>
+  <si>
+    <t>"phoneNo":"18916899938"
+"position":"09"</t>
+  </si>
+  <si>
+    <t>用户浏览创新大赛-计算内容列表</t>
+  </si>
+  <si>
+    <t>"phoneNo":"18916899938"
+"position":"04"</t>
+  </si>
+  <si>
+    <t>home_page_1</t>
+  </si>
+  <si>
+    <t>queryFindHotConentCnf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>queryInovnCal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/featured/index/configs/pageQueryPositionShows</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -449,15 +477,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.625" customWidth="1"/>
+    <col min="1" max="1" width="28" customWidth="1"/>
     <col min="2" max="2" width="60" customWidth="1"/>
     <col min="3" max="3" width="19.125" customWidth="1"/>
     <col min="4" max="4" width="35.875" customWidth="1"/>
@@ -498,10 +526,10 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>12</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" t="s">
@@ -511,6 +539,46 @@
         <v>11</v>
       </c>
       <c r="G2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
         <v>8</v>
       </c>
     </row>

--- a/steamcase/homepage/homehotpositioncase.xlsx
+++ b/steamcase/homepage/homehotpositioncase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\litaojun\workspace\steamOmTest\steamcase\homepage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{CFFC7EE8-B7DF-45E2-A52F-4A7D97707832}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{1DE6DA58-C7EF-4F7B-B26C-016D1C55E4C1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,44 +63,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>用户浏览首页-热门推荐运营位配置内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>find_page_cal_1</t>
+  </si>
+  <si>
+    <t>home_page_1</t>
+  </si>
+  <si>
+    <t>queryFindHotConentCnf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>queryInovnCal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/featured/index/configs/pageQueryPositionShows</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>"phoneNo":"18916899938"
-"position":"03"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户浏览首页-热门推荐运营位配置内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>find_page_cal_1</t>
+"position":"03"
+"currentPage":1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"phoneNo":"18916899938"
+"position":"09"
+"currentPage":1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"phoneNo":"18916899938"
+"position":"04"
+"currentPage":1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>用户浏览发现页-计算推荐内容</t>
-  </si>
-  <si>
-    <t>"phoneNo":"18916899938"
-"position":"09"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>用户浏览创新大赛-计算内容列表</t>
-  </si>
-  <si>
-    <t>"phoneNo":"18916899938"
-"position":"04"</t>
-  </si>
-  <si>
-    <t>home_page_1</t>
-  </si>
-  <si>
-    <t>queryFindHotConentCnf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>queryInovnCal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/featured/index/configs/pageQueryPositionShows</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -479,8 +486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -526,57 +533,57 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
         <v>14</v>
       </c>
-      <c r="E3" t="s">
-        <v>19</v>
-      </c>
       <c r="F3" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G4" t="s">
         <v>8</v>

--- a/steamcase/homepage/homehotpositioncase.xlsx
+++ b/steamcase/homepage/homehotpositioncase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\litaojun\workspace\steamOmTest\steamcase\homepage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{1DE6DA58-C7EF-4F7B-B26C-016D1C55E4C1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{E6B4D5A4-303D-43B2-8828-547C4AF84903}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
   <si>
     <t>caseid</t>
   </si>
@@ -71,14 +71,6 @@
   </si>
   <si>
     <t>home_page_1</t>
-  </si>
-  <si>
-    <t>queryFindHotConentCnf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>queryInovnCal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>/featured/index/configs/pageQueryPositionShows</t>
@@ -486,8 +478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -533,7 +525,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
@@ -543,7 +535,7 @@
         <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G2" t="s">
         <v>8</v>
@@ -554,16 +546,16 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="G3" t="s">
         <v>8</v>
@@ -574,16 +566,16 @@
         <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G4" t="s">
         <v>8</v>

--- a/steamcase/homepage/homehotpositioncase.xlsx
+++ b/steamcase/homepage/homehotpositioncase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\litaojun\workspace\steamOmTest\steamcase\homepage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{E6B4D5A4-303D-43B2-8828-547C4AF84903}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{5CC3A31A-CE9F-42B4-A845-B6ABFA9DBBBE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -479,7 +479,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/steamcase/homepage/homehotpositioncase.xlsx
+++ b/steamcase/homepage/homehotpositioncase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\litaojun\workspace\steamOmTest\steamcase\homepage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{5CC3A31A-CE9F-42B4-A845-B6ABFA9DBBBE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F068E284-AE6B-4468-977A-A110C8F7930C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -478,8 +478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
